--- a/data/pca/factorExposure/factorExposure_2017-02-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01893637917763846</v>
+        <v>0.01115497101188138</v>
       </c>
       <c r="C2">
-        <v>-0.0167620542834933</v>
+        <v>-0.03988771259054058</v>
       </c>
       <c r="D2">
-        <v>-0.03384505206675352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03121871430529605</v>
+      </c>
+      <c r="E2">
+        <v>0.05091831182285849</v>
+      </c>
+      <c r="F2">
+        <v>0.003824083139064338</v>
+      </c>
+      <c r="G2">
+        <v>0.1132875958123085</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04336367057701195</v>
+        <v>0.03883639480282501</v>
       </c>
       <c r="C3">
-        <v>0.01200165068205855</v>
+        <v>-0.1003499459670568</v>
       </c>
       <c r="D3">
-        <v>-0.1081099822710416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01771254891263593</v>
+      </c>
+      <c r="E3">
+        <v>0.09759041111800434</v>
+      </c>
+      <c r="F3">
+        <v>0.01889030148106091</v>
+      </c>
+      <c r="G3">
+        <v>0.1337359407632844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.03891400620895614</v>
+        <v>0.05490397838742048</v>
       </c>
       <c r="C4">
-        <v>-0.005303932875497263</v>
+        <v>-0.06725595773884423</v>
       </c>
       <c r="D4">
-        <v>-0.07039579319105314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02553334968601489</v>
+      </c>
+      <c r="E4">
+        <v>0.0412878303846782</v>
+      </c>
+      <c r="F4">
+        <v>0.001342402853758198</v>
+      </c>
+      <c r="G4">
+        <v>0.1023909895551119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01201472456684126</v>
+        <v>0.03453543605543079</v>
       </c>
       <c r="C6">
-        <v>-0.007610520305230103</v>
+        <v>-0.0513867940540037</v>
       </c>
       <c r="D6">
-        <v>-0.05550213110096281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01816918374310325</v>
+      </c>
+      <c r="E6">
+        <v>0.04677301032913718</v>
+      </c>
+      <c r="F6">
+        <v>0.002747335684574883</v>
+      </c>
+      <c r="G6">
+        <v>0.08647860985958175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.002646565693875981</v>
+        <v>0.02051218475574965</v>
       </c>
       <c r="C7">
-        <v>-0.009016607709399854</v>
+        <v>-0.03868204247977207</v>
       </c>
       <c r="D7">
-        <v>-0.03458654647511452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01486909664309673</v>
+      </c>
+      <c r="E7">
+        <v>0.01847436302661536</v>
+      </c>
+      <c r="F7">
+        <v>-0.003690462861443032</v>
+      </c>
+      <c r="G7">
+        <v>0.126028669960435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001554271594099749</v>
+        <v>0.003930069726616444</v>
       </c>
       <c r="C8">
-        <v>-0.00159046573707792</v>
+        <v>-0.02250744661113119</v>
       </c>
       <c r="D8">
-        <v>0.005288444136848748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003909166828978183</v>
+      </c>
+      <c r="E8">
+        <v>0.03156806252731188</v>
+      </c>
+      <c r="F8">
+        <v>0.001481714126820476</v>
+      </c>
+      <c r="G8">
+        <v>0.06861924817875648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01468171173569319</v>
+        <v>0.03283782903679192</v>
       </c>
       <c r="C9">
-        <v>-0.006523491504933231</v>
+        <v>-0.04759890449493363</v>
       </c>
       <c r="D9">
-        <v>-0.04161813436138599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01666832726846354</v>
+      </c>
+      <c r="E9">
+        <v>0.02773942027453113</v>
+      </c>
+      <c r="F9">
+        <v>-0.001297156231781386</v>
+      </c>
+      <c r="G9">
+        <v>0.1042904075463649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1294560899048834</v>
+        <v>0.1000051256007947</v>
       </c>
       <c r="C10">
-        <v>0.03644338190324325</v>
+        <v>0.1852513871758314</v>
       </c>
       <c r="D10">
-        <v>0.1667398348458488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0155116404841266</v>
+      </c>
+      <c r="E10">
+        <v>0.02106918098980996</v>
+      </c>
+      <c r="F10">
+        <v>0.02240670856648388</v>
+      </c>
+      <c r="G10">
+        <v>0.05326720931942085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.01505212186724832</v>
+        <v>0.03513936653368093</v>
       </c>
       <c r="C11">
-        <v>0.007639481623063526</v>
+        <v>-0.05224656752378621</v>
       </c>
       <c r="D11">
-        <v>-0.05037614193811062</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002633070094958267</v>
+      </c>
+      <c r="E11">
+        <v>0.02137275644393427</v>
+      </c>
+      <c r="F11">
+        <v>-0.015429662425548</v>
+      </c>
+      <c r="G11">
+        <v>0.08663890761012943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.01756493181504501</v>
+        <v>0.03738459984577785</v>
       </c>
       <c r="C12">
-        <v>0.002896023557688754</v>
+        <v>-0.04740014167471606</v>
       </c>
       <c r="D12">
-        <v>-0.04589306713585339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006658696396520595</v>
+      </c>
+      <c r="E12">
+        <v>0.0107694289557052</v>
+      </c>
+      <c r="F12">
+        <v>-0.002516607263723835</v>
+      </c>
+      <c r="G12">
+        <v>0.08216419155054935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01051024816906708</v>
+        <v>0.01279539110701046</v>
       </c>
       <c r="C13">
-        <v>-0.01736497077488719</v>
+        <v>-0.03930835793991656</v>
       </c>
       <c r="D13">
-        <v>-0.0278534410203106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02808264161569696</v>
+      </c>
+      <c r="E13">
+        <v>0.05161966622104825</v>
+      </c>
+      <c r="F13">
+        <v>0.01161248861442373</v>
+      </c>
+      <c r="G13">
+        <v>0.1441812744572541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.001230940953079432</v>
+        <v>0.009855427410514076</v>
       </c>
       <c r="C14">
-        <v>-0.006061949915478809</v>
+        <v>-0.02773282543018828</v>
       </c>
       <c r="D14">
-        <v>-0.02022946486143858</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01075233378108865</v>
+      </c>
+      <c r="E14">
+        <v>0.01291789311264721</v>
+      </c>
+      <c r="F14">
+        <v>0.006432808061129876</v>
+      </c>
+      <c r="G14">
+        <v>0.1136991728576544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.01446003073476222</v>
+        <v>0.03376382870247869</v>
       </c>
       <c r="C16">
-        <v>0.006529156246440129</v>
+        <v>-0.04525720227556632</v>
       </c>
       <c r="D16">
-        <v>-0.03784972930818974</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002190512748714392</v>
+      </c>
+      <c r="E16">
+        <v>0.01767128537834602</v>
+      </c>
+      <c r="F16">
+        <v>0.004139689116799117</v>
+      </c>
+      <c r="G16">
+        <v>0.09056496021333794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01684987915641677</v>
+        <v>0.02027660405625074</v>
       </c>
       <c r="C19">
-        <v>-0.005047070381806027</v>
+        <v>-0.05048865965147081</v>
       </c>
       <c r="D19">
-        <v>-0.04584008303325096</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02081302643089131</v>
+      </c>
+      <c r="E19">
+        <v>0.08802431803022177</v>
+      </c>
+      <c r="F19">
+        <v>0.004817561292570742</v>
+      </c>
+      <c r="G19">
+        <v>0.1406514019483772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.003239295135285033</v>
+        <v>0.01480140495857871</v>
       </c>
       <c r="C20">
-        <v>-0.008167193009643938</v>
+        <v>-0.04104467621649847</v>
       </c>
       <c r="D20">
-        <v>-0.03113209462332757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01515681755416218</v>
+      </c>
+      <c r="E20">
+        <v>0.04204334818865051</v>
+      </c>
+      <c r="F20">
+        <v>0.02325845752681298</v>
+      </c>
+      <c r="G20">
+        <v>0.1152369213860919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-7.604340082267402e-05</v>
+        <v>0.009518651109256973</v>
       </c>
       <c r="C21">
-        <v>-0.01311230855005681</v>
+        <v>-0.03809738129351476</v>
       </c>
       <c r="D21">
-        <v>-0.01697926413032251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02012959040214396</v>
+      </c>
+      <c r="E21">
+        <v>0.05100590440599777</v>
+      </c>
+      <c r="F21">
+        <v>0.01248583386078145</v>
+      </c>
+      <c r="G21">
+        <v>0.1427892852239762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001012443010194868</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006329934853279636</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002213179065924843</v>
+      </c>
+      <c r="E22">
+        <v>0.01808065432488161</v>
+      </c>
+      <c r="F22">
+        <v>-0.005705908633234567</v>
+      </c>
+      <c r="G22">
+        <v>0.005589393282711404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001022053615908554</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006297354766161846</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002209023649706199</v>
+      </c>
+      <c r="E23">
+        <v>0.01809343309518317</v>
+      </c>
+      <c r="F23">
+        <v>-0.005496451283907574</v>
+      </c>
+      <c r="G23">
+        <v>0.005430100121554807</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.007765998885458683</v>
+        <v>0.02912689168586734</v>
       </c>
       <c r="C24">
-        <v>-0.0001352026431645252</v>
+        <v>-0.04892924350619201</v>
       </c>
       <c r="D24">
-        <v>-0.04234250396871161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007300921357564149</v>
+      </c>
+      <c r="E24">
+        <v>0.0164535076997866</v>
+      </c>
+      <c r="F24">
+        <v>-0.006793335730929064</v>
+      </c>
+      <c r="G24">
+        <v>0.09040961611014627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.02436242658398817</v>
+        <v>0.04223093963716565</v>
       </c>
       <c r="C25">
-        <v>0.0007548247830870143</v>
+        <v>-0.0566828799128679</v>
       </c>
       <c r="D25">
-        <v>-0.05512914380679421</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01139622957383913</v>
+      </c>
+      <c r="E25">
+        <v>0.007797818199082266</v>
+      </c>
+      <c r="F25">
+        <v>-0.004986536589294512</v>
+      </c>
+      <c r="G25">
+        <v>0.09712466510590687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.00506733024070736</v>
+        <v>0.01455454380261311</v>
       </c>
       <c r="C26">
-        <v>-0.02175592515082003</v>
+        <v>-0.01122557332322721</v>
       </c>
       <c r="D26">
-        <v>2.72532402384053e-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02424634479531255</v>
+      </c>
+      <c r="E26">
+        <v>0.008791442971050006</v>
+      </c>
+      <c r="F26">
+        <v>0.006132323494764481</v>
+      </c>
+      <c r="G26">
+        <v>0.08443653071637555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1679359579014956</v>
+        <v>0.1297992017376474</v>
       </c>
       <c r="C28">
-        <v>0.03285872445945846</v>
+        <v>0.2428072836248495</v>
       </c>
       <c r="D28">
-        <v>0.2000114048104894</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006942429334367848</v>
+      </c>
+      <c r="E28">
+        <v>0.001987915504995015</v>
+      </c>
+      <c r="F28">
+        <v>0.02226847065512637</v>
+      </c>
+      <c r="G28">
+        <v>0.04824983783785167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007996235456874888</v>
+        <v>0.00929060344621142</v>
       </c>
       <c r="C29">
-        <v>-0.003512891456788765</v>
+        <v>-0.02355960677256864</v>
       </c>
       <c r="D29">
-        <v>-0.01685093398045858</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009601153247233719</v>
+      </c>
+      <c r="E29">
+        <v>0.00557707122706228</v>
+      </c>
+      <c r="F29">
+        <v>0.01179947276730429</v>
+      </c>
+      <c r="G29">
+        <v>0.1027913156652253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02778436315544805</v>
+        <v>0.03934343527033824</v>
       </c>
       <c r="C30">
-        <v>-0.01000792085923351</v>
+        <v>-0.06684164563502998</v>
       </c>
       <c r="D30">
-        <v>-0.08798244565552826</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.03014533904487409</v>
+      </c>
+      <c r="E30">
+        <v>0.07043809336462967</v>
+      </c>
+      <c r="F30">
+        <v>-0.02351935445069328</v>
+      </c>
+      <c r="G30">
+        <v>0.1285045186461163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02614632344543358</v>
+        <v>0.05352633727643995</v>
       </c>
       <c r="C31">
-        <v>0.00474696662395674</v>
+        <v>-0.03998213337532867</v>
       </c>
       <c r="D31">
-        <v>-0.0171871092344301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003820415848548634</v>
+      </c>
+      <c r="E31">
+        <v>-0.003139120925822862</v>
+      </c>
+      <c r="F31">
+        <v>0.03571880577096298</v>
+      </c>
+      <c r="G31">
+        <v>0.09811554293596089</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.01339550307620521</v>
+        <v>0.001991449994055227</v>
       </c>
       <c r="C32">
-        <v>0.01366676881628489</v>
+        <v>-0.02119831511943484</v>
       </c>
       <c r="D32">
-        <v>-0.02423067398631864</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.001723072139504151</v>
+      </c>
+      <c r="E32">
+        <v>0.04731790861267918</v>
+      </c>
+      <c r="F32">
+        <v>-0.03205966953498873</v>
+      </c>
+      <c r="G32">
+        <v>0.08186660437633927</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01434157262951222</v>
+        <v>0.02739059111439602</v>
       </c>
       <c r="C33">
-        <v>-0.003987536226486971</v>
+        <v>-0.05009897345544019</v>
       </c>
       <c r="D33">
-        <v>-0.04722693997396471</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01695807538253358</v>
+      </c>
+      <c r="E33">
+        <v>0.0550533795201951</v>
+      </c>
+      <c r="F33">
+        <v>-0.006486239723212355</v>
+      </c>
+      <c r="G33">
+        <v>0.1613380869635653</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.02690075245349039</v>
+        <v>0.04090792376276193</v>
       </c>
       <c r="C34">
-        <v>0.01850252386669954</v>
+        <v>-0.05951902609320583</v>
       </c>
       <c r="D34">
-        <v>-0.05225141745380196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004285378672675225</v>
+      </c>
+      <c r="E34">
+        <v>0.01347017590216928</v>
+      </c>
+      <c r="F34">
+        <v>-0.0185877101784334</v>
+      </c>
+      <c r="G34">
+        <v>0.09085625615137867</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.005877797859965869</v>
+        <v>0.01610301812963579</v>
       </c>
       <c r="C36">
-        <v>-0.009384509204333357</v>
+        <v>-0.009742967981664139</v>
       </c>
       <c r="D36">
-        <v>0.001022024800155515</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01289575790788927</v>
+      </c>
+      <c r="E36">
+        <v>0.01055003067762225</v>
+      </c>
+      <c r="F36">
+        <v>0.008835720401479055</v>
+      </c>
+      <c r="G36">
+        <v>0.09378212058608834</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02161909737131516</v>
+        <v>0.03260721338603369</v>
       </c>
       <c r="C38">
-        <v>0.01662819449583031</v>
+        <v>-0.02865805433710901</v>
       </c>
       <c r="D38">
-        <v>-0.02074366097388254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007816279020608987</v>
+      </c>
+      <c r="E38">
+        <v>0.0062399273863142</v>
+      </c>
+      <c r="F38">
+        <v>0.01770517966938018</v>
+      </c>
+      <c r="G38">
+        <v>0.08662717442247901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.003791118956246977</v>
+        <v>0.03642509951095316</v>
       </c>
       <c r="C39">
-        <v>-0.001755247716779653</v>
+        <v>-0.07915119268443585</v>
       </c>
       <c r="D39">
-        <v>-0.089156856717719</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01233803137060023</v>
+      </c>
+      <c r="E39">
+        <v>0.03204391236213937</v>
+      </c>
+      <c r="F39">
+        <v>-0.01765017183417929</v>
+      </c>
+      <c r="G39">
+        <v>0.0943602227420057</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01746746732830936</v>
+        <v>0.0138935013205773</v>
       </c>
       <c r="C40">
-        <v>-0.004386236310533748</v>
+        <v>-0.03729862818613901</v>
       </c>
       <c r="D40">
-        <v>-0.01911343580670109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01518776905721357</v>
+      </c>
+      <c r="E40">
+        <v>0.03459884779466792</v>
+      </c>
+      <c r="F40">
+        <v>0.01549505283240974</v>
+      </c>
+      <c r="G40">
+        <v>0.1267361307764115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01113334343177232</v>
+        <v>0.02065587607420379</v>
       </c>
       <c r="C41">
-        <v>-0.0003184108731259633</v>
+        <v>-0.003170954794827781</v>
       </c>
       <c r="D41">
-        <v>0.004531430220977822</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004915025250552148</v>
+      </c>
+      <c r="E41">
+        <v>0.0102526018996334</v>
+      </c>
+      <c r="F41">
+        <v>0.0150451564037924</v>
+      </c>
+      <c r="G41">
+        <v>0.08942873714492955</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.01535541007689327</v>
+        <v>0.005354353260618151</v>
       </c>
       <c r="C42">
-        <v>-0.08323268330281113</v>
+        <v>-0.02865279399773623</v>
       </c>
       <c r="D42">
-        <v>-0.0667384834037882</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0846456481853449</v>
+      </c>
+      <c r="E42">
+        <v>-0.00753101225655124</v>
+      </c>
+      <c r="F42">
+        <v>0.03701876633205817</v>
+      </c>
+      <c r="G42">
+        <v>-0.02619097155146383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01396471222426584</v>
+        <v>0.03561700917015433</v>
       </c>
       <c r="C43">
-        <v>8.693407211475499e-06</v>
+        <v>-0.01779833592961766</v>
       </c>
       <c r="D43">
-        <v>-0.0008544256675055717</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006264694845089494</v>
+      </c>
+      <c r="E43">
+        <v>0.02568531756405405</v>
+      </c>
+      <c r="F43">
+        <v>0.0114315705020619</v>
+      </c>
+      <c r="G43">
+        <v>0.1193521685974712</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.004939846124997579</v>
+        <v>0.01294551050160345</v>
       </c>
       <c r="C44">
-        <v>0.001284636226423606</v>
+        <v>-0.05621576501478179</v>
       </c>
       <c r="D44">
-        <v>-0.04611793839419034</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007650126084888363</v>
+      </c>
+      <c r="E44">
+        <v>0.03179116659329898</v>
+      </c>
+      <c r="F44">
+        <v>0.01698636501110684</v>
+      </c>
+      <c r="G44">
+        <v>0.1189537301576568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0003512073889827901</v>
+        <v>0.008763610901523479</v>
       </c>
       <c r="C46">
-        <v>-0.01082803550429107</v>
+        <v>-0.01578175522349544</v>
       </c>
       <c r="D46">
-        <v>0.00206232568489542</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01279846555698575</v>
+      </c>
+      <c r="E46">
+        <v>0.0001437655351399881</v>
+      </c>
+      <c r="F46">
+        <v>0.01485145300533299</v>
+      </c>
+      <c r="G46">
+        <v>0.1082040943487327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.04416804223946786</v>
+        <v>0.07923421736457666</v>
       </c>
       <c r="C47">
-        <v>0.02050513034124549</v>
+        <v>-0.07156289656099424</v>
       </c>
       <c r="D47">
-        <v>-0.06006188097354627</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005028464706113084</v>
+      </c>
+      <c r="E47">
+        <v>-0.01041986731937131</v>
+      </c>
+      <c r="F47">
+        <v>0.04863936651110757</v>
+      </c>
+      <c r="G47">
+        <v>0.08669732319564839</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.003516376346383573</v>
+        <v>0.01953883807896616</v>
       </c>
       <c r="C48">
-        <v>8.918280485257734e-05</v>
+        <v>-0.01321909651088212</v>
       </c>
       <c r="D48">
-        <v>-0.0005255167670289093</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0024443944965758</v>
+      </c>
+      <c r="E48">
+        <v>0.00512367903527931</v>
+      </c>
+      <c r="F48">
+        <v>0.0208309041604257</v>
+      </c>
+      <c r="G48">
+        <v>0.1023915896270688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.04703057769114261</v>
+        <v>0.0742858400714623</v>
       </c>
       <c r="C50">
-        <v>0.01942314413404437</v>
+        <v>-0.07359262389937034</v>
       </c>
       <c r="D50">
-        <v>-0.05157445575612352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002177279457925697</v>
+      </c>
+      <c r="E50">
+        <v>-0.01137759379920699</v>
+      </c>
+      <c r="F50">
+        <v>0.05006471786884382</v>
+      </c>
+      <c r="G50">
+        <v>0.09740554155881645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.003986598725369572</v>
+        <v>0.01216767408258405</v>
       </c>
       <c r="C51">
-        <v>-0.003733149482228836</v>
+        <v>-0.03699003735048056</v>
       </c>
       <c r="D51">
-        <v>-0.02602675159744948</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01147443815187364</v>
+      </c>
+      <c r="E51">
+        <v>0.03394219299271909</v>
+      </c>
+      <c r="F51">
+        <v>-0.01222537146072132</v>
+      </c>
+      <c r="G51">
+        <v>0.1217490072988242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.06580321588560444</v>
+        <v>0.081134160205309</v>
       </c>
       <c r="C53">
-        <v>0.02774868489817281</v>
+        <v>-0.08401956805287561</v>
       </c>
       <c r="D53">
-        <v>-0.08519395468587537</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003917064268781841</v>
+      </c>
+      <c r="E53">
+        <v>-0.03221205317887281</v>
+      </c>
+      <c r="F53">
+        <v>0.05396759972712408</v>
+      </c>
+      <c r="G53">
+        <v>0.09112087716791306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01699886808818663</v>
+        <v>0.03248333496035855</v>
       </c>
       <c r="C54">
-        <v>0.008238978805613225</v>
+        <v>-0.01771345008655415</v>
       </c>
       <c r="D54">
-        <v>-0.0008223434390642721</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0007023882542135031</v>
+      </c>
+      <c r="E54">
+        <v>0.01976129084876425</v>
+      </c>
+      <c r="F54">
+        <v>0.009722993400687481</v>
+      </c>
+      <c r="G54">
+        <v>0.1113228180943391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.04182664834283146</v>
+        <v>0.07370552922572209</v>
       </c>
       <c r="C55">
-        <v>0.02010811071424137</v>
+        <v>-0.06767513723099565</v>
       </c>
       <c r="D55">
-        <v>-0.06769876447869745</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005495541451086212</v>
+      </c>
+      <c r="E55">
+        <v>-0.03084920417800294</v>
+      </c>
+      <c r="F55">
+        <v>0.05205553142237032</v>
+      </c>
+      <c r="G55">
+        <v>0.06862346890379319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.09750437698016502</v>
+        <v>0.1357055812546157</v>
       </c>
       <c r="C56">
-        <v>0.04569284596724001</v>
+        <v>-0.1068681750657036</v>
       </c>
       <c r="D56">
-        <v>-0.1191377913678464</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0130024783544607</v>
+      </c>
+      <c r="E56">
+        <v>-0.03949156458535848</v>
+      </c>
+      <c r="F56">
+        <v>0.0665694528375327</v>
+      </c>
+      <c r="G56">
+        <v>0.0473582998661372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01313112660596429</v>
+        <v>0.003960770033100515</v>
       </c>
       <c r="C57">
-        <v>-0.01763142262933911</v>
+        <v>-0.004664508668363998</v>
       </c>
       <c r="D57">
-        <v>-0.01501896047904707</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02270657267788959</v>
+      </c>
+      <c r="E57">
+        <v>0.02461988739062291</v>
+      </c>
+      <c r="F57">
+        <v>-0.001048115341698112</v>
+      </c>
+      <c r="G57">
+        <v>0.01704467655363173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.02228348326804193</v>
+        <v>0.04368209870329186</v>
       </c>
       <c r="C58">
-        <v>0.01457941056922107</v>
+        <v>-0.03916905037950792</v>
       </c>
       <c r="D58">
-        <v>-0.09741899933997246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02896946041369932</v>
+      </c>
+      <c r="E58">
+        <v>0.8121919830561017</v>
+      </c>
+      <c r="F58">
+        <v>0.4866373387610782</v>
+      </c>
+      <c r="G58">
+        <v>-0.2485190400423577</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.2045970010342608</v>
+        <v>0.1606620483980402</v>
       </c>
       <c r="C59">
-        <v>0.05112212976447442</v>
+        <v>0.2072242760299516</v>
       </c>
       <c r="D59">
-        <v>0.1823255520623786</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01124667031183864</v>
+      </c>
+      <c r="E59">
+        <v>0.0224312179298957</v>
+      </c>
+      <c r="F59">
+        <v>0.005107916362597834</v>
+      </c>
+      <c r="G59">
+        <v>0.03512432647137491</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2935039523982065</v>
+        <v>0.286660765348641</v>
       </c>
       <c r="C60">
-        <v>0.08671016304518152</v>
+        <v>-0.1152617879585143</v>
       </c>
       <c r="D60">
-        <v>-0.1927462418548457</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01526873228478662</v>
+      </c>
+      <c r="E60">
+        <v>0.08911791799285881</v>
+      </c>
+      <c r="F60">
+        <v>-0.3211229096295953</v>
+      </c>
+      <c r="G60">
+        <v>-0.1632551747160519</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.01177974444968254</v>
+        <v>0.0388497187150544</v>
       </c>
       <c r="C61">
-        <v>0.005397789389600833</v>
+        <v>-0.06504451030596492</v>
       </c>
       <c r="D61">
-        <v>-0.06929678200750944</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006298653581189205</v>
+      </c>
+      <c r="E61">
+        <v>0.03080580476445031</v>
+      </c>
+      <c r="F61">
+        <v>-0.0103252125410956</v>
+      </c>
+      <c r="G61">
+        <v>0.09913409033440945</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.005916265428573589</v>
+        <v>0.01447749001842928</v>
       </c>
       <c r="C63">
-        <v>-0.003941416762268857</v>
+        <v>-0.03016467170458163</v>
       </c>
       <c r="D63">
-        <v>-0.02858475936576586</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008772712521090643</v>
+      </c>
+      <c r="E63">
+        <v>0.005513003225971146</v>
+      </c>
+      <c r="F63">
+        <v>0.01459710597672789</v>
+      </c>
+      <c r="G63">
+        <v>0.09468325285677776</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.03344067963868935</v>
+        <v>0.04978545348663097</v>
       </c>
       <c r="C64">
-        <v>0.008035240028418924</v>
+        <v>-0.0463984416129371</v>
       </c>
       <c r="D64">
-        <v>-0.03949875189482058</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.005956674307380903</v>
+      </c>
+      <c r="E64">
+        <v>0.005260492051088238</v>
+      </c>
+      <c r="F64">
+        <v>-0.006462503279376501</v>
+      </c>
+      <c r="G64">
+        <v>0.0983035494136609</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.05815804759383249</v>
+        <v>0.07363105244587928</v>
       </c>
       <c r="C65">
-        <v>0.00817103365426811</v>
+        <v>-0.06010858943203366</v>
       </c>
       <c r="D65">
-        <v>-0.09303188389395763</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01747612226303864</v>
+      </c>
+      <c r="E65">
+        <v>0.04877838600791533</v>
+      </c>
+      <c r="F65">
+        <v>-0.01235987936367034</v>
+      </c>
+      <c r="G65">
+        <v>0.04008723152105107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.01090697896840151</v>
+        <v>0.04806507622890198</v>
       </c>
       <c r="C66">
-        <v>0.004183507499111799</v>
+        <v>-0.1063810690283897</v>
       </c>
       <c r="D66">
-        <v>-0.1371163721465112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01303687250594234</v>
+      </c>
+      <c r="E66">
+        <v>0.05269763601840288</v>
+      </c>
+      <c r="F66">
+        <v>-0.02634804780591312</v>
+      </c>
+      <c r="G66">
+        <v>0.1034517821415878</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04755326646761091</v>
+        <v>0.05584269633762889</v>
       </c>
       <c r="C67">
-        <v>0.02222297636611988</v>
+        <v>-0.03422819130479613</v>
       </c>
       <c r="D67">
-        <v>-0.03470897997736769</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006398407629877305</v>
+      </c>
+      <c r="E67">
+        <v>-0.004695201293507378</v>
+      </c>
+      <c r="F67">
+        <v>0.01363792691701689</v>
+      </c>
+      <c r="G67">
+        <v>0.07340252015424127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.195028053867481</v>
+        <v>0.1592571612978685</v>
       </c>
       <c r="C68">
-        <v>0.02394328673130853</v>
+        <v>0.2697804167065374</v>
       </c>
       <c r="D68">
-        <v>0.2336449890295746</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.004842058158122359</v>
+      </c>
+      <c r="E68">
+        <v>-0.002013304623073154</v>
+      </c>
+      <c r="F68">
+        <v>0.04530365189878329</v>
+      </c>
+      <c r="G68">
+        <v>0.0194143520998199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04917242701836531</v>
+        <v>0.08167422393317862</v>
       </c>
       <c r="C69">
-        <v>0.02546102499119406</v>
+        <v>-0.07430596956481174</v>
       </c>
       <c r="D69">
-        <v>-0.05392754798550572</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008971167392406667</v>
+      </c>
+      <c r="E69">
+        <v>-0.02354705404914757</v>
+      </c>
+      <c r="F69">
+        <v>0.02882121375314129</v>
+      </c>
+      <c r="G69">
+        <v>0.09825304977195076</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1738530741357231</v>
+        <v>0.1457526540638868</v>
       </c>
       <c r="C71">
-        <v>0.03244542776350541</v>
+        <v>0.2297776716526701</v>
       </c>
       <c r="D71">
-        <v>0.1826766038389762</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.00329755022634955</v>
+      </c>
+      <c r="E71">
+        <v>0.02975952810206183</v>
+      </c>
+      <c r="F71">
+        <v>0.02785561462036823</v>
+      </c>
+      <c r="G71">
+        <v>0.06571806402522729</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.05163032107971998</v>
+        <v>0.0864825624840717</v>
       </c>
       <c r="C72">
-        <v>0.02953398097347116</v>
+        <v>-0.07005828236359463</v>
       </c>
       <c r="D72">
-        <v>-0.07539098969364935</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008378528519815893</v>
+      </c>
+      <c r="E72">
+        <v>-0.004760282236068994</v>
+      </c>
+      <c r="F72">
+        <v>-0.0345747689427701</v>
+      </c>
+      <c r="G72">
+        <v>0.09073147352354634</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3688183496616793</v>
+        <v>0.3706600804175173</v>
       </c>
       <c r="C73">
-        <v>0.1079574099004793</v>
+        <v>-0.1216162860055758</v>
       </c>
       <c r="D73">
-        <v>-0.2715252509260888</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02726874246620288</v>
+      </c>
+      <c r="E73">
+        <v>0.2171832959980318</v>
+      </c>
+      <c r="F73">
+        <v>-0.5473944010834826</v>
+      </c>
+      <c r="G73">
+        <v>-0.3118688871298728</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08573372354190539</v>
+        <v>0.1043149285790345</v>
       </c>
       <c r="C74">
-        <v>0.04280502926653501</v>
+        <v>-0.1087853554572317</v>
       </c>
       <c r="D74">
-        <v>-0.1324728834726171</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009517141706986183</v>
+      </c>
+      <c r="E74">
+        <v>-0.013858010347414</v>
+      </c>
+      <c r="F74">
+        <v>0.05881597958779936</v>
+      </c>
+      <c r="G74">
+        <v>0.07556964009050657</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1904836377760575</v>
+        <v>0.2465136632807095</v>
       </c>
       <c r="C75">
-        <v>0.08695234730992557</v>
+        <v>-0.1520215000576102</v>
       </c>
       <c r="D75">
-        <v>-0.1942520670103651</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03211574826082705</v>
+      </c>
+      <c r="E75">
+        <v>-0.099447984886447</v>
+      </c>
+      <c r="F75">
+        <v>0.1471611671636929</v>
+      </c>
+      <c r="G75">
+        <v>-0.007335711474805966</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.09247826248053856</v>
+        <v>0.1152031411980852</v>
       </c>
       <c r="C76">
-        <v>0.05138168801960954</v>
+        <v>-0.1114277814834275</v>
       </c>
       <c r="D76">
-        <v>-0.1323693382583038</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01809831040836286</v>
+      </c>
+      <c r="E76">
+        <v>-0.04317298155323676</v>
+      </c>
+      <c r="F76">
+        <v>0.0870442050035693</v>
+      </c>
+      <c r="G76">
+        <v>0.05745565393290412</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.03539104023215176</v>
+        <v>0.07121709812930045</v>
       </c>
       <c r="C77">
-        <v>0.007170926179639398</v>
+        <v>-0.05756373477241441</v>
       </c>
       <c r="D77">
-        <v>-0.06871380501814529</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01055524193686795</v>
+      </c>
+      <c r="E77">
+        <v>0.05284860609641776</v>
+      </c>
+      <c r="F77">
+        <v>0.002240526246455106</v>
+      </c>
+      <c r="G77">
+        <v>0.07070836288235872</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.02868053014379542</v>
+        <v>0.04186078896285343</v>
       </c>
       <c r="C78">
-        <v>0.009404112044715548</v>
+        <v>-0.05132849737051346</v>
       </c>
       <c r="D78">
-        <v>-0.06356026829214653</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.00714965766089175</v>
+      </c>
+      <c r="E78">
+        <v>0.04204611975011739</v>
+      </c>
+      <c r="F78">
+        <v>-0.03094246790017533</v>
+      </c>
+      <c r="G78">
+        <v>0.1034486922606059</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001161226361087866</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0008397924513855812</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0005284109124185318</v>
+      </c>
+      <c r="E79">
+        <v>0.005898892979763815</v>
+      </c>
+      <c r="F79">
+        <v>-1.941945552051858e-05</v>
+      </c>
+      <c r="G79">
+        <v>0.003745951987625476</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0435546273511665</v>
+        <v>0.04163080482859198</v>
       </c>
       <c r="C80">
-        <v>0.006538948961711047</v>
+        <v>-0.05353571763449396</v>
       </c>
       <c r="D80">
-        <v>-0.07127503059379013</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01408560715836715</v>
+      </c>
+      <c r="E80">
+        <v>0.03166156849769543</v>
+      </c>
+      <c r="F80">
+        <v>0.0009885110431701591</v>
+      </c>
+      <c r="G80">
+        <v>0.04964430628997579</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1011559713059291</v>
+        <v>0.1380040766555743</v>
       </c>
       <c r="C81">
-        <v>0.0458440818046751</v>
+        <v>-0.0957881800454083</v>
       </c>
       <c r="D81">
-        <v>-0.09962296486756655</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01574459183909894</v>
+      </c>
+      <c r="E81">
+        <v>-0.05952418972814641</v>
+      </c>
+      <c r="F81">
+        <v>0.1130361962000849</v>
+      </c>
+      <c r="G81">
+        <v>0.02661117277025144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.02103679008471451</v>
+        <v>0.1477992805827092</v>
       </c>
       <c r="C82">
-        <v>0.007884600812844875</v>
+        <v>-0.08890409741023776</v>
       </c>
       <c r="D82">
-        <v>-0.02143908467853406</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.0135787821447132</v>
+      </c>
+      <c r="E82">
+        <v>-0.130652435615519</v>
+      </c>
+      <c r="F82">
+        <v>0.04306690187376774</v>
+      </c>
+      <c r="G82">
+        <v>0.05940600349704079</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01924554714399308</v>
+        <v>0.03345404579077368</v>
       </c>
       <c r="C83">
-        <v>0.002869188780034447</v>
+        <v>-0.03209369988886848</v>
       </c>
       <c r="D83">
-        <v>-0.0208556139208691</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006885549879023827</v>
+      </c>
+      <c r="E83">
+        <v>0.03479616431491905</v>
+      </c>
+      <c r="F83">
+        <v>-0.03025305880448209</v>
+      </c>
+      <c r="G83">
+        <v>0.05888112468522212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1857388416897942</v>
+        <v>0.2079857215516398</v>
       </c>
       <c r="C85">
-        <v>0.07453541118191387</v>
+        <v>-0.1460698324898991</v>
       </c>
       <c r="D85">
-        <v>-0.2091184178207947</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01767224616129749</v>
+      </c>
+      <c r="E85">
+        <v>-0.114137451481487</v>
+      </c>
+      <c r="F85">
+        <v>0.08191651161657286</v>
+      </c>
+      <c r="G85">
+        <v>-0.04479862028519113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01319922860142468</v>
+        <v>0.01349485847948471</v>
       </c>
       <c r="C86">
-        <v>-0.0004422371862902575</v>
+        <v>-0.0275850859643903</v>
       </c>
       <c r="D86">
-        <v>-0.02212264197146045</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01260438050004116</v>
+      </c>
+      <c r="E86">
+        <v>0.06473873746880528</v>
+      </c>
+      <c r="F86">
+        <v>-0.02296992052079099</v>
+      </c>
+      <c r="G86">
+        <v>0.1821493940503057</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.005724146225963708</v>
+        <v>0.02144394017088866</v>
       </c>
       <c r="C87">
-        <v>-0.008807900520735171</v>
+        <v>-0.01639737234412214</v>
       </c>
       <c r="D87">
-        <v>-0.02501420733187634</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01308486409995018</v>
+      </c>
+      <c r="E87">
+        <v>0.1002526666009541</v>
+      </c>
+      <c r="F87">
+        <v>0.01754044409790203</v>
+      </c>
+      <c r="G87">
+        <v>0.1226992391664601</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06102815678599234</v>
+        <v>0.0911622272546268</v>
       </c>
       <c r="C88">
-        <v>-0.001307357472134841</v>
+        <v>-0.07135561954865668</v>
       </c>
       <c r="D88">
-        <v>-0.06740539908157493</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02240979572678841</v>
+      </c>
+      <c r="E88">
+        <v>-0.002815841730668075</v>
+      </c>
+      <c r="F88">
+        <v>0.02113818822272298</v>
+      </c>
+      <c r="G88">
+        <v>0.09824431128022938</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.3018254775930765</v>
+        <v>0.2349914305003288</v>
       </c>
       <c r="C89">
-        <v>0.05074669748787455</v>
+        <v>0.3643725580198733</v>
       </c>
       <c r="D89">
-        <v>0.3171578057559756</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0001808497980344449</v>
+      </c>
+      <c r="E89">
+        <v>-0.02560930324904436</v>
+      </c>
+      <c r="F89">
+        <v>0.01868719070342322</v>
+      </c>
+      <c r="G89">
+        <v>0.07596981849661806</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.257258267193041</v>
+        <v>0.2127595661558137</v>
       </c>
       <c r="C90">
-        <v>0.04629492630788202</v>
+        <v>0.3141860643345786</v>
       </c>
       <c r="D90">
-        <v>0.282467667543017</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004705795884601649</v>
+      </c>
+      <c r="E90">
+        <v>-0.007901726491300181</v>
+      </c>
+      <c r="F90">
+        <v>0.04671365493110737</v>
+      </c>
+      <c r="G90">
+        <v>0.05002395039325538</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1502314718132951</v>
+        <v>0.1846086605093025</v>
       </c>
       <c r="C91">
-        <v>0.06920083608459031</v>
+        <v>-0.1369523326060308</v>
       </c>
       <c r="D91">
-        <v>-0.1335323597555864</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02314454762404464</v>
+      </c>
+      <c r="E91">
+        <v>-0.08330669325500563</v>
+      </c>
+      <c r="F91">
+        <v>0.1142624168732383</v>
+      </c>
+      <c r="G91">
+        <v>0.03247287627524256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2335998102517343</v>
+        <v>0.199857651525438</v>
       </c>
       <c r="C92">
-        <v>0.07927248449339942</v>
+        <v>0.2575404596783833</v>
       </c>
       <c r="D92">
-        <v>0.2264013149954873</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03855589291444184</v>
+      </c>
+      <c r="E92">
+        <v>0.02157607724258088</v>
+      </c>
+      <c r="F92">
+        <v>0.05708349266004734</v>
+      </c>
+      <c r="G92">
+        <v>0.09300491344532745</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2743145323815236</v>
+        <v>0.2354940842190896</v>
       </c>
       <c r="C93">
-        <v>0.05924724170416328</v>
+        <v>0.3080314727432737</v>
       </c>
       <c r="D93">
-        <v>0.2536221251348004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01100612477681199</v>
+      </c>
+      <c r="E93">
+        <v>0.003028810073744311</v>
+      </c>
+      <c r="F93">
+        <v>0.03860632021972317</v>
+      </c>
+      <c r="G93">
+        <v>0.06075726864615182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.211950054691469</v>
+        <v>0.3203542589272378</v>
       </c>
       <c r="C94">
-        <v>0.07247985584917942</v>
+        <v>-0.1949657483361791</v>
       </c>
       <c r="D94">
-        <v>-0.2010884319518595</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02484985219626813</v>
+      </c>
+      <c r="E94">
+        <v>-0.3369395960607114</v>
+      </c>
+      <c r="F94">
+        <v>0.4234249400829779</v>
+      </c>
+      <c r="G94">
+        <v>-0.3960350555931313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.067341983728245</v>
+        <v>0.09606072338879508</v>
       </c>
       <c r="C95">
-        <v>0.03821227169969391</v>
+        <v>-0.08290539369905686</v>
       </c>
       <c r="D95">
-        <v>-0.1430382046657665</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009701546309524356</v>
+      </c>
+      <c r="E95">
+        <v>0.1007435759141696</v>
+      </c>
+      <c r="F95">
+        <v>-0.1622071734979205</v>
+      </c>
+      <c r="G95">
+        <v>0.0002068347707110311</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1757403109351281</v>
+        <v>0.1892258040190599</v>
       </c>
       <c r="C98">
-        <v>0.07351883366847352</v>
+        <v>-0.04896396781290996</v>
       </c>
       <c r="D98">
-        <v>-0.09809066807757123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0102185808568867</v>
+      </c>
+      <c r="E98">
+        <v>0.1258993250427013</v>
+      </c>
+      <c r="F98">
+        <v>-0.2110104108917107</v>
+      </c>
+      <c r="G98">
+        <v>-0.03037247038408379</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007657027993648142</v>
+        <v>0.009135196698944515</v>
       </c>
       <c r="C101">
-        <v>-0.003444983809481282</v>
+        <v>-0.02344095241067283</v>
       </c>
       <c r="D101">
-        <v>-0.01707762450156968</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009422199670432625</v>
+      </c>
+      <c r="E101">
+        <v>0.005152514369391399</v>
+      </c>
+      <c r="F101">
+        <v>0.01269035467416793</v>
+      </c>
+      <c r="G101">
+        <v>0.1023803116079382</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.09798293146222008</v>
+        <v>0.1169691797717763</v>
       </c>
       <c r="C102">
-        <v>0.03045713525576495</v>
+        <v>-0.08488468924072379</v>
       </c>
       <c r="D102">
-        <v>-0.09944669843856546</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0004321229443676152</v>
+      </c>
+      <c r="E102">
+        <v>-0.04156916641277272</v>
+      </c>
+      <c r="F102">
+        <v>0.02655809629326386</v>
+      </c>
+      <c r="G102">
+        <v>0.01819338837870703</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.2731068859867727</v>
+        <v>0.02116213401541359</v>
       </c>
       <c r="C104">
-        <v>-0.9513081219223194</v>
+        <v>0.02974752561466189</v>
       </c>
       <c r="D104">
-        <v>-0.05605719213596758</v>
+        <v>0.9871839508513689</v>
+      </c>
+      <c r="E104">
+        <v>-0.07024377172510345</v>
+      </c>
+      <c r="F104">
+        <v>0.02704447166087823</v>
+      </c>
+      <c r="G104">
+        <v>-0.03912687332762189</v>
       </c>
     </row>
   </sheetData>
